--- a/앤더슨벨아이템리스트.xlsx
+++ b/앤더슨벨아이템리스트.xlsx
@@ -40,6 +40,24 @@
     <x:t>정상가</x:t>
   </x:si>
   <x:si>
+    <x:t>20180625</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20180625-0000022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>atb181u(Grey)L</x:t>
+  </x:si>
+  <x:si>
+    <x:t> UNISEX RUNNING EMBROIDERY SWEATSHIRT (Grey)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grey:L</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
     <x:t>20180624</x:t>
   </x:si>
   <x:si>
@@ -53,24 +71,6 @@
   </x:si>
   <x:si>
     <x:t>Red:F</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20180625</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20180625-0000022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>atb181u(Grey)L</x:t>
-  </x:si>
-  <x:si>
-    <x:t> UNISEX RUNNING EMBROIDERY SWEATSHIRT (Grey)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grey:L</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -479,10 +479,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>39000</x:v>
+        <x:v>59000</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
-        <x:v>39000</x:v>
+        <x:v>59000</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -505,10 +505,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>59000</x:v>
+        <x:v>39000</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>59000</x:v>
+        <x:v>39000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
